--- a/data/pca/factorExposure/factorExposure_2009-02-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-02-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +714,42 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01683361198802104</v>
+        <v>0.01549452392755744</v>
       </c>
       <c r="C2">
-        <v>0.01029160684213443</v>
+        <v>0.01191333809149878</v>
       </c>
       <c r="D2">
-        <v>0.0135135016838077</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01511270586416406</v>
+      </c>
+      <c r="E2">
+        <v>0.003031769810415236</v>
+      </c>
+      <c r="F2">
+        <v>0.004515104909211679</v>
+      </c>
+      <c r="G2">
+        <v>-0.01844483701210911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +760,364 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.08180732991579046</v>
+        <v>0.08438662678443459</v>
       </c>
       <c r="C4">
-        <v>0.07920771461548357</v>
+        <v>0.08453994193482076</v>
       </c>
       <c r="D4">
-        <v>-0.05822707407940859</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06378610337018073</v>
+      </c>
+      <c r="E4">
+        <v>-0.003807881991366362</v>
+      </c>
+      <c r="F4">
+        <v>0.04471675047270848</v>
+      </c>
+      <c r="G4">
+        <v>-0.03262352286205084</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.002548558514008095</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.001079076618657767</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>1.771010713454741e-05</v>
+      </c>
+      <c r="E5">
+        <v>0.002728815859110171</v>
+      </c>
+      <c r="F5">
+        <v>-0.002232395184371436</v>
+      </c>
+      <c r="G5">
+        <v>0.002245180153512794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1673840451844783</v>
+        <v>0.1701516828393537</v>
       </c>
       <c r="C6">
-        <v>-0.01913351854052723</v>
+        <v>-0.01139998494267407</v>
       </c>
       <c r="D6">
-        <v>-0.04625281956452437</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.05574414257718914</v>
+      </c>
+      <c r="E6">
+        <v>-0.004062132902663946</v>
+      </c>
+      <c r="F6">
+        <v>-0.05339681235544471</v>
+      </c>
+      <c r="G6">
+        <v>0.01588561439133028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.05493212868485371</v>
+        <v>0.05935239185380141</v>
       </c>
       <c r="C7">
-        <v>0.05480364833819329</v>
+        <v>0.06072031466737842</v>
       </c>
       <c r="D7">
-        <v>-0.02697909558107131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05405501395338656</v>
+      </c>
+      <c r="E7">
+        <v>-0.04167318389948022</v>
+      </c>
+      <c r="F7">
+        <v>0.07266131180070971</v>
+      </c>
+      <c r="G7">
+        <v>-0.04667822007960686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.05747353778384085</v>
+        <v>0.05366803684241613</v>
       </c>
       <c r="C8">
-        <v>0.04434011047593445</v>
+        <v>0.04592824029747299</v>
       </c>
       <c r="D8">
-        <v>0.01155453334598441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02316874605885974</v>
+      </c>
+      <c r="E8">
+        <v>0.0233244005289655</v>
+      </c>
+      <c r="F8">
+        <v>0.03223862988657102</v>
+      </c>
+      <c r="G8">
+        <v>0.004007193292757047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.06209724464213899</v>
+        <v>0.06541743122048105</v>
       </c>
       <c r="C9">
-        <v>0.08572368943254448</v>
+        <v>0.08945110226354525</v>
       </c>
       <c r="D9">
-        <v>-0.07865962930512195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08207084370456605</v>
+      </c>
+      <c r="E9">
+        <v>-0.0051877947052804</v>
+      </c>
+      <c r="F9">
+        <v>0.06943288008202465</v>
+      </c>
+      <c r="G9">
+        <v>-0.005530837148996639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1052007029215161</v>
+        <v>0.09786916580345406</v>
       </c>
       <c r="C10">
-        <v>-0.1562230836840655</v>
+        <v>-0.1485725928874231</v>
       </c>
       <c r="D10">
-        <v>0.1076545443137003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0971967205130566</v>
+      </c>
+      <c r="E10">
+        <v>-0.01631833947796802</v>
+      </c>
+      <c r="F10">
+        <v>0.04129140109731638</v>
+      </c>
+      <c r="G10">
+        <v>0.00677892882364646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.08055692364126582</v>
+        <v>0.07822635694010088</v>
       </c>
       <c r="C11">
-        <v>0.1284931076431167</v>
+        <v>0.1276869606253871</v>
       </c>
       <c r="D11">
-        <v>-0.05888720978037559</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04395751927811394</v>
+      </c>
+      <c r="E11">
+        <v>0.01286896872183135</v>
+      </c>
+      <c r="F11">
+        <v>0.07941128504756352</v>
+      </c>
+      <c r="G11">
+        <v>-0.006825565593118961</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.08443138864629482</v>
+        <v>0.08005986250059902</v>
       </c>
       <c r="C12">
-        <v>0.1444258754180512</v>
+        <v>0.1461619202770165</v>
       </c>
       <c r="D12">
-        <v>-0.05655766912404695</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05193398214587386</v>
+      </c>
+      <c r="E12">
+        <v>0.001716419727992425</v>
+      </c>
+      <c r="F12">
+        <v>0.09036011715061008</v>
+      </c>
+      <c r="G12">
+        <v>-0.01210305347152281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.04231016545242853</v>
+        <v>0.04220118571422495</v>
       </c>
       <c r="C13">
-        <v>0.05833946335916271</v>
+        <v>0.06640462246825665</v>
       </c>
       <c r="D13">
-        <v>-0.01995345143971165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02604402648896869</v>
+      </c>
+      <c r="E13">
+        <v>-0.01216612623865535</v>
+      </c>
+      <c r="F13">
+        <v>0.08188793630341812</v>
+      </c>
+      <c r="G13">
+        <v>-0.01539477031045531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.0204173452135335</v>
+        <v>0.02314723488069298</v>
       </c>
       <c r="C14">
-        <v>0.04092244428651816</v>
+        <v>0.0410652091708047</v>
       </c>
       <c r="D14">
-        <v>-0.04841813497533713</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03976368672341494</v>
+      </c>
+      <c r="E14">
+        <v>0.009348962309981921</v>
+      </c>
+      <c r="F14">
+        <v>0.08667317049550673</v>
+      </c>
+      <c r="G14">
+        <v>0.001726319614311443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.03173960435469779</v>
+        <v>0.03401881191303378</v>
       </c>
       <c r="C15">
-        <v>0.05753589698635866</v>
+        <v>0.05693902683790618</v>
       </c>
       <c r="D15">
-        <v>-0.04203519237184115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03920296033969717</v>
+      </c>
+      <c r="E15">
+        <v>-0.007184405391705055</v>
+      </c>
+      <c r="F15">
+        <v>0.03644841628412653</v>
+      </c>
+      <c r="G15">
+        <v>0.007751792172531747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.05912526164774381</v>
+        <v>0.05899775349738921</v>
       </c>
       <c r="C16">
-        <v>0.1420529885329244</v>
+        <v>0.1418103327003852</v>
       </c>
       <c r="D16">
-        <v>-0.07364982572069048</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05242599629527281</v>
+      </c>
+      <c r="E16">
+        <v>0.02768136869717486</v>
+      </c>
+      <c r="F16">
+        <v>0.08788032274845035</v>
+      </c>
+      <c r="G16">
+        <v>-0.01354985213828674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.004961739717473552</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.003998773209480661</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002536674909348706</v>
+      </c>
+      <c r="E17">
+        <v>0.008719756520551052</v>
+      </c>
+      <c r="F17">
+        <v>-0.005458610290738109</v>
+      </c>
+      <c r="G17">
+        <v>0.01654777060583358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>-0.03473078635161941</v>
+        <v>0.05131489252926791</v>
       </c>
       <c r="C18">
-        <v>0.04334646091712368</v>
+        <v>0.03734356641826948</v>
       </c>
       <c r="D18">
-        <v>0.004670159595927773</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01155280562016912</v>
+      </c>
+      <c r="E18">
+        <v>-0.0009155290519196457</v>
+      </c>
+      <c r="F18">
+        <v>-0.04375597991400471</v>
+      </c>
+      <c r="G18">
+        <v>0.01213755521693478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1128,180 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.05766134974472491</v>
+        <v>0.05773088877582427</v>
       </c>
       <c r="C20">
-        <v>0.09151599488739395</v>
+        <v>0.09150912567282941</v>
       </c>
       <c r="D20">
-        <v>-0.07891233400890584</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0669939932994698</v>
+      </c>
+      <c r="E20">
+        <v>0.02032945667953266</v>
+      </c>
+      <c r="F20">
+        <v>0.07655941855852685</v>
+      </c>
+      <c r="G20">
+        <v>0.0009593982563073819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.04230237181639672</v>
+        <v>0.04420907522767466</v>
       </c>
       <c r="C21">
-        <v>0.05284811054890828</v>
+        <v>0.05253141431067822</v>
       </c>
       <c r="D21">
-        <v>0.0008449770215687774</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.003711572206055529</v>
+      </c>
+      <c r="E21">
+        <v>-0.008153593257718484</v>
+      </c>
+      <c r="F21">
+        <v>0.07708684808516592</v>
+      </c>
+      <c r="G21">
+        <v>-0.02558162430432906</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.04496347452192736</v>
+        <v>0.04339058026010231</v>
       </c>
       <c r="C22">
-        <v>0.01952668535338443</v>
+        <v>0.02113907520535735</v>
       </c>
       <c r="D22">
-        <v>-0.01644975756133452</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.05001528185921553</v>
+      </c>
+      <c r="E22">
+        <v>0.1153223190005535</v>
+      </c>
+      <c r="F22">
+        <v>-0.02856613874782163</v>
+      </c>
+      <c r="G22">
+        <v>0.001381408203573007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.04497285847081277</v>
+        <v>0.04339851784310945</v>
       </c>
       <c r="C23">
-        <v>0.01951930245015774</v>
+        <v>0.02113280214074264</v>
       </c>
       <c r="D23">
-        <v>-0.0164372776482361</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.05004680689743976</v>
+      </c>
+      <c r="E23">
+        <v>0.1153552625537592</v>
+      </c>
+      <c r="F23">
+        <v>-0.02856098532882338</v>
+      </c>
+      <c r="G23">
+        <v>0.001416692413930766</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.06807630412462835</v>
+        <v>0.06734937201374337</v>
       </c>
       <c r="C24">
-        <v>0.1347214363721601</v>
+        <v>0.1331818324193849</v>
       </c>
       <c r="D24">
-        <v>-0.06289158285952115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05291468994197809</v>
+      </c>
+      <c r="E24">
+        <v>0.007248650363306975</v>
+      </c>
+      <c r="F24">
+        <v>0.07802439629347213</v>
+      </c>
+      <c r="G24">
+        <v>-0.01330169807310299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.07381243102546373</v>
+        <v>0.07201541379774472</v>
       </c>
       <c r="C25">
-        <v>0.1210911272362364</v>
+        <v>0.1193630669887</v>
       </c>
       <c r="D25">
-        <v>-0.03931889388938054</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.03668930332909844</v>
+      </c>
+      <c r="E25">
+        <v>-0.01761989976114327</v>
+      </c>
+      <c r="F25">
+        <v>0.09180957989013953</v>
+      </c>
+      <c r="G25">
+        <v>-0.01793286375900571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.05654578712976572</v>
+        <v>0.06079762426067062</v>
       </c>
       <c r="C26">
-        <v>0.06422721137293347</v>
+        <v>0.06523297134147597</v>
       </c>
       <c r="D26">
-        <v>-0.02695946748424266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01185073352246928</v>
+      </c>
+      <c r="E26">
+        <v>0.009047817685765234</v>
+      </c>
+      <c r="F26">
+        <v>0.087312077264911</v>
+      </c>
+      <c r="G26">
+        <v>-0.001673167720909339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1312,249 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1679930432920743</v>
+        <v>0.1707787735718125</v>
       </c>
       <c r="C28">
-        <v>-0.2329436460274432</v>
+        <v>-0.2327730034296302</v>
       </c>
       <c r="D28">
-        <v>0.03326359266591124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02120537634376611</v>
+      </c>
+      <c r="E28">
+        <v>-0.06067834564731621</v>
+      </c>
+      <c r="F28">
+        <v>0.1253286589641368</v>
+      </c>
+      <c r="G28">
+        <v>0.001923154089731751</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.02443048227344197</v>
+        <v>0.02715639462415467</v>
       </c>
       <c r="C29">
-        <v>0.0453227641510334</v>
+        <v>0.0425391400802967</v>
       </c>
       <c r="D29">
-        <v>-0.01505203073654352</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>8.127398356556644e-05</v>
+      </c>
+      <c r="E29">
+        <v>0.02365334016123306</v>
+      </c>
+      <c r="F29">
+        <v>0.07632566587696832</v>
+      </c>
+      <c r="G29">
+        <v>-0.001219749882468522</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.0407871652167635</v>
+        <v>0.04301874408637778</v>
       </c>
       <c r="C30">
-        <v>0.06630419783072668</v>
+        <v>0.07383105840363791</v>
       </c>
       <c r="D30">
-        <v>-0.09417201217770127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1052941902197995</v>
+      </c>
+      <c r="E30">
+        <v>-0.05435101672006668</v>
+      </c>
+      <c r="F30">
+        <v>0.08969973140582761</v>
+      </c>
+      <c r="G30">
+        <v>0.01862264505441643</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05306527306462337</v>
+        <v>0.05221495807009836</v>
       </c>
       <c r="C31">
-        <v>0.03326109753800855</v>
+        <v>0.03643839331977455</v>
       </c>
       <c r="D31">
-        <v>-0.0223691495296284</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01023339468988431</v>
+      </c>
+      <c r="E31">
+        <v>0.03610859793897669</v>
+      </c>
+      <c r="F31">
+        <v>0.0142639394447007</v>
+      </c>
+      <c r="G31">
+        <v>-0.02333499579888744</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.04330987892198968</v>
+        <v>0.04817736898899295</v>
       </c>
       <c r="C32">
-        <v>0.04741956053478538</v>
+        <v>0.04461737696781601</v>
       </c>
       <c r="D32">
-        <v>-0.02911468992798148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.02020012969610075</v>
+      </c>
+      <c r="E32">
+        <v>0.02773272450260796</v>
+      </c>
+      <c r="F32">
+        <v>0.00490962711793246</v>
+      </c>
+      <c r="G32">
+        <v>0.01382992278524887</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.07991771416650359</v>
+        <v>0.08312108600324045</v>
       </c>
       <c r="C33">
-        <v>0.1072224958986548</v>
+        <v>0.1157026561856915</v>
       </c>
       <c r="D33">
-        <v>-0.07168603722438593</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.05783767345749722</v>
+      </c>
+      <c r="E33">
+        <v>0.02316931091807803</v>
+      </c>
+      <c r="F33">
+        <v>0.08301847226089158</v>
+      </c>
+      <c r="G33">
+        <v>-0.009490146976115917</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05766450563297869</v>
+        <v>0.05717568973804598</v>
       </c>
       <c r="C34">
-        <v>0.1216928920244964</v>
+        <v>0.1231940904549607</v>
       </c>
       <c r="D34">
-        <v>-0.0672514089363058</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05978885921478852</v>
+      </c>
+      <c r="E34">
+        <v>-0.01510331315271535</v>
+      </c>
+      <c r="F34">
+        <v>0.0907509639760353</v>
+      </c>
+      <c r="G34">
+        <v>0.01870061430080472</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.02714824644749425</v>
+        <v>0.02894939330992928</v>
       </c>
       <c r="C35">
-        <v>0.01637347198979307</v>
+        <v>0.01760315960233908</v>
       </c>
       <c r="D35">
-        <v>-0.03102695894898413</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01428582629011162</v>
+      </c>
+      <c r="E35">
+        <v>0.02308612917848519</v>
+      </c>
+      <c r="F35">
+        <v>0.03904563728437074</v>
+      </c>
+      <c r="G35">
+        <v>0.0244138652909324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.0226429842655619</v>
+        <v>0.02743275748745976</v>
       </c>
       <c r="C36">
-        <v>0.0454096523231268</v>
+        <v>0.04569998176190889</v>
       </c>
       <c r="D36">
-        <v>-0.05929956570219885</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0446019904066936</v>
+      </c>
+      <c r="E36">
+        <v>0.01816293343066452</v>
+      </c>
+      <c r="F36">
+        <v>0.0441341645525061</v>
+      </c>
+      <c r="G36">
+        <v>0.08385788048110521</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003649162519393495</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.005789652333807672</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0009545541839375509</v>
+      </c>
+      <c r="E37">
+        <v>0.001174273581154262</v>
+      </c>
+      <c r="F37">
+        <v>0.01023642773050219</v>
+      </c>
+      <c r="G37">
+        <v>-0.00642770359801834</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1565,88 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.08625090510543991</v>
+        <v>0.07990863665082586</v>
       </c>
       <c r="C39">
-        <v>0.1503618611011794</v>
+        <v>0.1464138128950244</v>
       </c>
       <c r="D39">
-        <v>-0.04753929110828956</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.03618396450097152</v>
+      </c>
+      <c r="E39">
+        <v>0.00996587464714686</v>
+      </c>
+      <c r="F39">
+        <v>0.1219940348639218</v>
+      </c>
+      <c r="G39">
+        <v>-0.0551370470734356</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.04537372105631336</v>
+        <v>0.05094199060507249</v>
       </c>
       <c r="C40">
-        <v>0.05512919030062241</v>
+        <v>0.05903022815858387</v>
       </c>
       <c r="D40">
-        <v>-0.009356686237277013</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.001225703660114076</v>
+      </c>
+      <c r="E40">
+        <v>-0.002507266857704186</v>
+      </c>
+      <c r="F40">
+        <v>0.06333604891421774</v>
+      </c>
+      <c r="G40">
+        <v>0.03320734872597207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02720902515593563</v>
+        <v>0.02907269705965983</v>
       </c>
       <c r="C41">
-        <v>0.02092947989230451</v>
+        <v>0.02217938203032862</v>
       </c>
       <c r="D41">
-        <v>0.005575022935071725</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.006124456645292425</v>
+      </c>
+      <c r="E41">
+        <v>0.004402336622889239</v>
+      </c>
+      <c r="F41">
+        <v>-0.01294501573149733</v>
+      </c>
+      <c r="G41">
+        <v>0.01331879911588719</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1657,203 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04251631788556519</v>
+        <v>0.04181135870394864</v>
       </c>
       <c r="C43">
-        <v>0.03672294872219156</v>
+        <v>0.03479090142217581</v>
       </c>
       <c r="D43">
-        <v>-0.007151429141452321</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.004858125534730666</v>
+      </c>
+      <c r="E43">
+        <v>0.02345854388835356</v>
+      </c>
+      <c r="F43">
+        <v>0.02432983456763554</v>
+      </c>
+      <c r="G43">
+        <v>-0.003339504766412559</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.05539247675870186</v>
+        <v>0.06350557620332974</v>
       </c>
       <c r="C44">
-        <v>0.07508489891759856</v>
+        <v>0.08166020372764808</v>
       </c>
       <c r="D44">
-        <v>-0.2599916316564411</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.2565078014067407</v>
+      </c>
+      <c r="E44">
+        <v>-0.02688307641883387</v>
+      </c>
+      <c r="F44">
+        <v>0.1885753388443568</v>
+      </c>
+      <c r="G44">
+        <v>0.1771175760689846</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>8.212952532413423e-06</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.0001565317155228402</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>0.0001979530881239863</v>
+      </c>
+      <c r="E45">
+        <v>-0.000160735996262953</v>
+      </c>
+      <c r="F45">
+        <v>0.0002529786072264643</v>
+      </c>
+      <c r="G45">
+        <v>-0.0002622866728050168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.02661236181483542</v>
+        <v>0.02701072395163216</v>
       </c>
       <c r="C46">
-        <v>0.02942357429408306</v>
+        <v>0.02840009655827086</v>
       </c>
       <c r="D46">
-        <v>-0.02133203533951815</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.003549992001669639</v>
+      </c>
+      <c r="E46">
+        <v>0.03278723845088446</v>
+      </c>
+      <c r="F46">
+        <v>0.06839188637984552</v>
+      </c>
+      <c r="G46">
+        <v>-0.03360943843565072</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.05172602964868219</v>
+        <v>0.05082049163810316</v>
       </c>
       <c r="C47">
-        <v>0.02235355614170138</v>
+        <v>0.02412649364430879</v>
       </c>
       <c r="D47">
-        <v>0.00654421538328858</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02152647300736166</v>
+      </c>
+      <c r="E47">
+        <v>0.05341652287903192</v>
+      </c>
+      <c r="F47">
+        <v>-0.0162388629420977</v>
+      </c>
+      <c r="G47">
+        <v>-0.03138657725670967</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.04713582040433038</v>
+        <v>0.0507204730892683</v>
       </c>
       <c r="C48">
-        <v>0.06529084566657563</v>
+        <v>0.06393674674790442</v>
       </c>
       <c r="D48">
-        <v>-0.01125712496980386</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01735507224448059</v>
+      </c>
+      <c r="E48">
+        <v>-0.01855220895649507</v>
+      </c>
+      <c r="F48">
+        <v>0.056402259623284</v>
+      </c>
+      <c r="G48">
+        <v>-0.02407046751903301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.1950712344198758</v>
+        <v>0.1981599072026425</v>
       </c>
       <c r="C49">
-        <v>-0.01511751950756227</v>
+        <v>-0.008399793889217412</v>
       </c>
       <c r="D49">
-        <v>-0.01392410346460488</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.04246381920170285</v>
+      </c>
+      <c r="E49">
+        <v>-0.02522110906273023</v>
+      </c>
+      <c r="F49">
+        <v>-0.05516703337235207</v>
+      </c>
+      <c r="G49">
+        <v>0.005584488202010694</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.0508113053179139</v>
+        <v>0.05231735309143942</v>
       </c>
       <c r="C50">
-        <v>0.03035153637976944</v>
+        <v>0.03317728352291891</v>
       </c>
       <c r="D50">
-        <v>-0.02876066903282841</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02272132650700849</v>
+      </c>
+      <c r="E50">
+        <v>0.02624863334281282</v>
+      </c>
+      <c r="F50">
+        <v>0.007012694231533795</v>
+      </c>
+      <c r="G50">
+        <v>-0.02177873638543949</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1864,134 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>-0.1452088153343149</v>
+        <v>0.1388076294014845</v>
       </c>
       <c r="C52">
-        <v>0.03679386866702988</v>
+        <v>0.03784577887327291</v>
       </c>
       <c r="D52">
-        <v>-0.06088545825201101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.0567374229080664</v>
+      </c>
+      <c r="E52">
+        <v>0.03055409034366295</v>
+      </c>
+      <c r="F52">
+        <v>-0.0607781461833663</v>
+      </c>
+      <c r="G52">
+        <v>-0.0244464970616594</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1755009241180892</v>
+        <v>0.1664614559523738</v>
       </c>
       <c r="C53">
-        <v>0.006919058079429398</v>
+        <v>0.009986570032822507</v>
       </c>
       <c r="D53">
-        <v>-0.1009443411484344</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.108050043947411</v>
+      </c>
+      <c r="E53">
+        <v>0.03245735654883466</v>
+      </c>
+      <c r="F53">
+        <v>-0.1066430958396707</v>
+      </c>
+      <c r="G53">
+        <v>-0.05364031226896401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01156373242065427</v>
+        <v>0.01466729163098056</v>
       </c>
       <c r="C54">
-        <v>0.02956303690334706</v>
+        <v>0.03054598923806513</v>
       </c>
       <c r="D54">
-        <v>-0.01416681742547468</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01167890293677308</v>
+      </c>
+      <c r="E54">
+        <v>0.01486609180466194</v>
+      </c>
+      <c r="F54">
+        <v>0.05627509801684094</v>
+      </c>
+      <c r="G54">
+        <v>0.006680424064352299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.120920396915759</v>
+        <v>0.1171779600719261</v>
       </c>
       <c r="C55">
-        <v>0.007713727795230769</v>
+        <v>0.01375788147318281</v>
       </c>
       <c r="D55">
-        <v>-0.07637199009803836</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06357714639907175</v>
+      </c>
+      <c r="E55">
+        <v>0.05459034899954476</v>
+      </c>
+      <c r="F55">
+        <v>-0.03126640109691597</v>
+      </c>
+      <c r="G55">
+        <v>-0.06089752839942496</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1812219835957128</v>
+        <v>0.1737811766533203</v>
       </c>
       <c r="C56">
-        <v>-0.001118663808509579</v>
+        <v>0.0003444353258328304</v>
       </c>
       <c r="D56">
-        <v>-0.05959083250041169</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.06082063244803344</v>
+      </c>
+      <c r="E56">
+        <v>0.04837595302581356</v>
+      </c>
+      <c r="F56">
+        <v>-0.1419499867715971</v>
+      </c>
+      <c r="G56">
+        <v>-0.05866221076506899</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +2002,433 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04643961787557045</v>
+        <v>0.04599649648168141</v>
       </c>
       <c r="C58">
-        <v>0.0920364676855997</v>
+        <v>0.09861695021655079</v>
       </c>
       <c r="D58">
-        <v>-0.007259465465397872</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.007952102074228267</v>
+      </c>
+      <c r="E58">
+        <v>0.04074041812196039</v>
+      </c>
+      <c r="F58">
+        <v>0.04046596212481457</v>
+      </c>
+      <c r="G58">
+        <v>-0.01993269578794545</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1836405224380624</v>
+        <v>0.1869677663489954</v>
       </c>
       <c r="C59">
-        <v>-0.1930476900895377</v>
+        <v>-0.1952330917771436</v>
       </c>
       <c r="D59">
-        <v>0.07790577761202704</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.08069474739242508</v>
+      </c>
+      <c r="E59">
+        <v>-0.0111101869125394</v>
+      </c>
+      <c r="F59">
+        <v>0.05357972123740916</v>
+      </c>
+      <c r="G59">
+        <v>-0.04382231261355487</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2176952504737511</v>
+        <v>0.2124004790446189</v>
       </c>
       <c r="C60">
-        <v>0.01603825216642174</v>
+        <v>0.02237268050276917</v>
       </c>
       <c r="D60">
-        <v>0.05174498017146133</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.02881471124340875</v>
+      </c>
+      <c r="E60">
+        <v>0.01257449295909766</v>
+      </c>
+      <c r="F60">
+        <v>-0.2073782642924513</v>
+      </c>
+      <c r="G60">
+        <v>-0.08090579146812706</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.06729920354516854</v>
+        <v>0.06388106744586243</v>
       </c>
       <c r="C61">
-        <v>0.1203794249914242</v>
+        <v>0.1182802197233163</v>
       </c>
       <c r="D61">
-        <v>-0.04238219559548849</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.02538658687072736</v>
+      </c>
+      <c r="E61">
+        <v>0.02237733989907556</v>
+      </c>
+      <c r="F61">
+        <v>0.08341136665304869</v>
+      </c>
+      <c r="G61">
+        <v>-0.02339655763226501</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.1686894274079045</v>
+        <v>0.1647738644999661</v>
       </c>
       <c r="C62">
-        <v>-0.0030942323791869</v>
+        <v>-0.000423219228838493</v>
       </c>
       <c r="D62">
-        <v>-0.05051639298204596</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04946436152345134</v>
+      </c>
+      <c r="E62">
+        <v>0.05123954371479818</v>
+      </c>
+      <c r="F62">
+        <v>-0.1115218307856772</v>
+      </c>
+      <c r="G62">
+        <v>-0.05097214492381621</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.03841987094667957</v>
+        <v>0.04367627658762495</v>
       </c>
       <c r="C63">
-        <v>0.0668709598958117</v>
+        <v>0.07069488770647836</v>
       </c>
       <c r="D63">
-        <v>-0.03398261661591644</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01596938254360097</v>
+      </c>
+      <c r="E63">
+        <v>0.02626433048877421</v>
+      </c>
+      <c r="F63">
+        <v>0.05373691893359961</v>
+      </c>
+      <c r="G63">
+        <v>0.02319765031481444</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.1126110460530155</v>
+        <v>0.110357149252354</v>
       </c>
       <c r="C64">
-        <v>0.05037021358525793</v>
+        <v>0.05415012377704364</v>
       </c>
       <c r="D64">
-        <v>-0.03952577972765515</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0399603780775175</v>
+      </c>
+      <c r="E64">
+        <v>0.01532539950001026</v>
+      </c>
+      <c r="F64">
+        <v>-0.03160389196524643</v>
+      </c>
+      <c r="G64">
+        <v>-0.003042867845809155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.1564937547595634</v>
+        <v>0.1598159844769736</v>
       </c>
       <c r="C65">
-        <v>-0.05712221211797171</v>
+        <v>-0.04829097361100695</v>
       </c>
       <c r="D65">
-        <v>-0.04269461205913171</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.05225094686296974</v>
+      </c>
+      <c r="E65">
+        <v>0.007331861425074984</v>
+      </c>
+      <c r="F65">
+        <v>-0.01231734484438503</v>
+      </c>
+      <c r="G65">
+        <v>-0.0153122065017552</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.1044478377884698</v>
+        <v>0.09722711065790492</v>
       </c>
       <c r="C66">
-        <v>0.1300234314940326</v>
+        <v>0.1302649726260276</v>
       </c>
       <c r="D66">
-        <v>-0.05203220542348261</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.03687533113523384</v>
+      </c>
+      <c r="E66">
+        <v>0.007941733852038243</v>
+      </c>
+      <c r="F66">
+        <v>0.1030413763747755</v>
+      </c>
+      <c r="G66">
+        <v>-0.009258485539731144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05812216585926699</v>
+        <v>0.04873841627767772</v>
       </c>
       <c r="C67">
-        <v>0.07424470549943382</v>
+        <v>0.06831485880220681</v>
       </c>
       <c r="D67">
-        <v>0.03048860310482322</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0603348721614652</v>
+      </c>
+      <c r="E67">
+        <v>0.06261524801688896</v>
+      </c>
+      <c r="F67">
+        <v>-0.03293700822283459</v>
+      </c>
+      <c r="G67">
+        <v>-0.0007274972871032146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1366468363030156</v>
+        <v>0.1396856108337449</v>
       </c>
       <c r="C68">
-        <v>-0.2490152325488897</v>
+        <v>-0.2510296197609206</v>
       </c>
       <c r="D68">
-        <v>0.06032401063130897</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03128854347815666</v>
+      </c>
+      <c r="E68">
+        <v>-0.09550230183860459</v>
+      </c>
+      <c r="F68">
+        <v>0.1088017859107101</v>
+      </c>
+      <c r="G68">
+        <v>-0.03209881215138122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.03939575162447489</v>
+        <v>0.03881946599986627</v>
       </c>
       <c r="C69">
-        <v>0.01357937477792328</v>
+        <v>0.0151860062068252</v>
       </c>
       <c r="D69">
-        <v>-0.02502694149353728</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.005940611295659903</v>
+      </c>
+      <c r="E69">
+        <v>0.061519988091769</v>
+      </c>
+      <c r="F69">
+        <v>-0.04322903130491185</v>
+      </c>
+      <c r="G69">
+        <v>0.02303431112130425</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.07041336317080969</v>
+        <v>0.07182193945453087</v>
       </c>
       <c r="C70">
-        <v>0.07271013273938444</v>
+        <v>0.06738900149954886</v>
       </c>
       <c r="D70">
-        <v>0.431390781514717</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.3866711765335433</v>
+      </c>
+      <c r="E70">
+        <v>0.1210197389062519</v>
+      </c>
+      <c r="F70">
+        <v>-0.4141322589134193</v>
+      </c>
+      <c r="G70">
+        <v>-0.4279415602127056</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1585063579423494</v>
+        <v>0.1629361786180074</v>
       </c>
       <c r="C71">
-        <v>-0.2581761502739456</v>
+        <v>-0.2573783412377993</v>
       </c>
       <c r="D71">
-        <v>0.07030570456108441</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03694735280879823</v>
+      </c>
+      <c r="E71">
+        <v>-0.1074128965234607</v>
+      </c>
+      <c r="F71">
+        <v>0.1119873683325317</v>
+      </c>
+      <c r="G71">
+        <v>-0.03222207938790773</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1421152675020849</v>
+        <v>0.1473022606245598</v>
       </c>
       <c r="C72">
-        <v>0.008662171734995569</v>
+        <v>0.007746196133377715</v>
       </c>
       <c r="D72">
-        <v>-0.07977055783354972</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.06270139431908016</v>
+      </c>
+      <c r="E72">
+        <v>0.04423755557619163</v>
+      </c>
+      <c r="F72">
+        <v>-0.01146592852889984</v>
+      </c>
+      <c r="G72">
+        <v>0.005459403071577612</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.193059359330527</v>
+        <v>0.200519814176218</v>
       </c>
       <c r="C73">
-        <v>0.02133403368606239</v>
+        <v>0.02848065830069885</v>
       </c>
       <c r="D73">
-        <v>-0.066910871127597</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.05565305524476699</v>
+      </c>
+      <c r="E73">
+        <v>0.07712941230797889</v>
+      </c>
+      <c r="F73">
+        <v>-0.09890044607806323</v>
+      </c>
+      <c r="G73">
+        <v>0.01987732635543124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.08755449085835379</v>
+        <v>0.08670076213137735</v>
       </c>
       <c r="C74">
-        <v>0.009334590172290203</v>
+        <v>0.01528657967163487</v>
       </c>
       <c r="D74">
-        <v>-0.07768140785697128</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.08091417853688185</v>
+      </c>
+      <c r="E74">
+        <v>0.03372625611888955</v>
+      </c>
+      <c r="F74">
+        <v>-0.06226568111126686</v>
+      </c>
+      <c r="G74">
+        <v>0.006954827302390251</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1244194046372013</v>
+        <v>0.1168855685040368</v>
       </c>
       <c r="C75">
-        <v>0.02195251297836898</v>
+        <v>0.02513224417445961</v>
       </c>
       <c r="D75">
-        <v>-0.07439245933569166</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.05156472798521049</v>
+      </c>
+      <c r="E75">
+        <v>0.06860529414346074</v>
+      </c>
+      <c r="F75">
+        <v>-0.05266374500887139</v>
+      </c>
+      <c r="G75">
+        <v>-0.03722565797453545</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2439,594 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07353197734303747</v>
+        <v>0.08783667482044846</v>
       </c>
       <c r="C77">
-        <v>0.1211957670207299</v>
+        <v>0.1187193896994372</v>
       </c>
       <c r="D77">
-        <v>-0.06759613288605106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.07148205441202078</v>
+      </c>
+      <c r="E77">
+        <v>-0.008929927895381259</v>
+      </c>
+      <c r="F77">
+        <v>0.08671693396429045</v>
+      </c>
+      <c r="G77">
+        <v>-0.1208101490089575</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.0914632195150886</v>
+        <v>0.09404876820580205</v>
       </c>
       <c r="C78">
-        <v>0.1371635969961817</v>
+        <v>0.1335329604217456</v>
       </c>
       <c r="D78">
-        <v>-0.08500967424866183</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06825943036155216</v>
+      </c>
+      <c r="E78">
+        <v>-0.005170998015497303</v>
+      </c>
+      <c r="F78">
+        <v>0.1207363995226959</v>
+      </c>
+      <c r="G78">
+        <v>-0.1134302182181521</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.1682266789038513</v>
+        <v>0.1631819670191046</v>
       </c>
       <c r="C79">
-        <v>0.02019675013778102</v>
+        <v>0.02100303935223306</v>
       </c>
       <c r="D79">
-        <v>-0.04363875502717315</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03393601726652816</v>
+      </c>
+      <c r="E79">
+        <v>0.04425041230489523</v>
+      </c>
+      <c r="F79">
+        <v>-0.04898721184473928</v>
+      </c>
+      <c r="G79">
+        <v>-0.03887108600921908</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.07624844278246952</v>
+        <v>0.07369957064699351</v>
       </c>
       <c r="C80">
-        <v>0.05843011968566414</v>
+        <v>0.05746954710494701</v>
       </c>
       <c r="D80">
-        <v>-0.02643094012167906</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01515555282506859</v>
+      </c>
+      <c r="E80">
+        <v>0.04552909944989007</v>
+      </c>
+      <c r="F80">
+        <v>0.1187798408411225</v>
+      </c>
+      <c r="G80">
+        <v>0.08705356588551638</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1115183178764515</v>
+        <v>0.1055132152425768</v>
       </c>
       <c r="C81">
-        <v>-0.01397940595155342</v>
+        <v>-0.01028176687947015</v>
       </c>
       <c r="D81">
-        <v>-0.0460378276441101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0295715415218688</v>
+      </c>
+      <c r="E81">
+        <v>0.06683383300850063</v>
+      </c>
+      <c r="F81">
+        <v>-0.06094548797469845</v>
+      </c>
+      <c r="G81">
+        <v>-0.005833040062586368</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.160972590379895</v>
+        <v>0.157625131544005</v>
       </c>
       <c r="C82">
-        <v>-0.02058004517188305</v>
+        <v>-0.0138195894887265</v>
       </c>
       <c r="D82">
-        <v>-0.0849708627014828</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.09721325942447123</v>
+      </c>
+      <c r="E82">
+        <v>0.02473533386932129</v>
+      </c>
+      <c r="F82">
+        <v>-0.09776777130743601</v>
+      </c>
+      <c r="G82">
+        <v>0.01479957076611998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.05367583443954702</v>
+        <v>0.04961507851370144</v>
       </c>
       <c r="C83">
-        <v>0.05760914951806554</v>
+        <v>0.05464302678696614</v>
       </c>
       <c r="D83">
-        <v>0.005396829509072126</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01046090738913876</v>
+      </c>
+      <c r="E83">
+        <v>0.0054731410306867</v>
+      </c>
+      <c r="F83">
+        <v>0.005077426282438752</v>
+      </c>
+      <c r="G83">
+        <v>-0.01939274521114033</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.05216550661268633</v>
+        <v>0.04927373838954282</v>
       </c>
       <c r="C84">
-        <v>0.07591069159727186</v>
+        <v>0.0738085077040125</v>
       </c>
       <c r="D84">
-        <v>-0.01011046207614074</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.008906001970535749</v>
+      </c>
+      <c r="E84">
+        <v>0.006777411874718408</v>
+      </c>
+      <c r="F84">
+        <v>-0.0193530503274686</v>
+      </c>
+      <c r="G84">
+        <v>-0.03162680346289073</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1409987726479098</v>
+        <v>0.1348089473422149</v>
       </c>
       <c r="C85">
-        <v>0.01239141412582203</v>
+        <v>0.01554467265098607</v>
       </c>
       <c r="D85">
-        <v>-0.09606740065873678</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08862007148296626</v>
+      </c>
+      <c r="E85">
+        <v>0.03645831250089553</v>
+      </c>
+      <c r="F85">
+        <v>-0.0337332392160502</v>
+      </c>
+      <c r="G85">
+        <v>-0.02374188365556271</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.08766498213548604</v>
+        <v>0.08323198708635644</v>
       </c>
       <c r="C86">
-        <v>0.1041076379476026</v>
+        <v>0.1081017190728614</v>
       </c>
       <c r="D86">
-        <v>0.3125534655909383</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.6481297574404615</v>
+      </c>
+      <c r="E86">
+        <v>0.4334759708694549</v>
+      </c>
+      <c r="F86">
+        <v>0.4370852119905284</v>
+      </c>
+      <c r="G86">
+        <v>0.06435993153763864</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.08858340509443299</v>
+        <v>0.08779044446899115</v>
       </c>
       <c r="C87">
-        <v>0.08145057408611954</v>
+        <v>0.08322809017607544</v>
       </c>
       <c r="D87">
-        <v>-0.01836920122867484</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.04319431295295782</v>
+      </c>
+      <c r="E87">
+        <v>-0.1027271397678377</v>
+      </c>
+      <c r="F87">
+        <v>0.09815400939109362</v>
+      </c>
+      <c r="G87">
+        <v>0.05832774516024307</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.06180048023660852</v>
+        <v>0.06141182674192219</v>
       </c>
       <c r="C88">
-        <v>0.06194460351541425</v>
+        <v>0.0628174641628518</v>
       </c>
       <c r="D88">
-        <v>-0.01944154246413793</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01674421990056104</v>
+      </c>
+      <c r="E88">
+        <v>0.01652608637931271</v>
+      </c>
+      <c r="F88">
+        <v>-0.02522010352976573</v>
+      </c>
+      <c r="G88">
+        <v>-0.009754314312786706</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1442564657173573</v>
+        <v>0.1471051105604638</v>
       </c>
       <c r="C89">
-        <v>-0.207047604146151</v>
+        <v>-0.2173530898590143</v>
       </c>
       <c r="D89">
-        <v>0.04760972354620148</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02480036467673913</v>
+      </c>
+      <c r="E89">
+        <v>-0.09578511855394668</v>
+      </c>
+      <c r="F89">
+        <v>0.08860463540666512</v>
+      </c>
+      <c r="G89">
+        <v>0.0003307825792228927</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.172479038300437</v>
+        <v>0.1800265034973332</v>
       </c>
       <c r="C90">
-        <v>-0.2380433582610763</v>
+        <v>-0.2446016369276556</v>
       </c>
       <c r="D90">
-        <v>0.09126785561889653</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.05306299694149374</v>
+      </c>
+      <c r="E90">
+        <v>-0.1384130186523885</v>
+      </c>
+      <c r="F90">
+        <v>0.1310429518237746</v>
+      </c>
+      <c r="G90">
+        <v>-0.01790733825295096</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1265412118983896</v>
+        <v>0.1205160471521798</v>
       </c>
       <c r="C91">
-        <v>-0.02016376741779905</v>
+        <v>-0.01799371811266088</v>
       </c>
       <c r="D91">
-        <v>-0.05023760791870164</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01702087074284486</v>
+      </c>
+      <c r="E91">
+        <v>0.09817025812836719</v>
+      </c>
+      <c r="F91">
+        <v>-0.08828225808704508</v>
+      </c>
+      <c r="G91">
+        <v>0.008632338669125056</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1674709048227273</v>
+        <v>0.1698004244209821</v>
       </c>
       <c r="C92">
-        <v>-0.2709665686518894</v>
+        <v>-0.280639652384927</v>
       </c>
       <c r="D92">
-        <v>0.07732344673808934</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.04513482774454059</v>
+      </c>
+      <c r="E92">
+        <v>-0.09624182200497544</v>
+      </c>
+      <c r="F92">
+        <v>0.1686141106588303</v>
+      </c>
+      <c r="G92">
+        <v>-0.07548728443210806</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1731684256623205</v>
+        <v>0.1809195195749245</v>
       </c>
       <c r="C93">
-        <v>-0.2318872309306484</v>
+        <v>-0.2379812782067302</v>
       </c>
       <c r="D93">
-        <v>0.04923407222779359</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02408286092978009</v>
+      </c>
+      <c r="E93">
+        <v>-0.07134225893044048</v>
+      </c>
+      <c r="F93">
+        <v>0.08715834557672042</v>
+      </c>
+      <c r="G93">
+        <v>-0.07314167914549392</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1207332570726125</v>
+        <v>0.114930034959526</v>
       </c>
       <c r="C94">
-        <v>0.03575441061341715</v>
+        <v>0.03656613793500359</v>
       </c>
       <c r="D94">
-        <v>-0.06476124437091631</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04464171226189693</v>
+      </c>
+      <c r="E94">
+        <v>0.06743792256450971</v>
+      </c>
+      <c r="F94">
+        <v>-0.05529929202415406</v>
+      </c>
+      <c r="G94">
+        <v>-0.02832455995001265</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1211533185106386</v>
+        <v>0.1239732997484272</v>
       </c>
       <c r="C95">
-        <v>0.1128219221419901</v>
+        <v>0.1200584897800796</v>
       </c>
       <c r="D95">
-        <v>-0.02026088703637544</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.003831941133027858</v>
+      </c>
+      <c r="E95">
+        <v>0.04199063312956871</v>
+      </c>
+      <c r="F95">
+        <v>0.04010728623114708</v>
+      </c>
+      <c r="G95">
+        <v>-0.005152459154149155</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>-0.1236226351735307</v>
+        <v>0.1217995365185218</v>
       </c>
       <c r="C96">
-        <v>0.1313009747187081</v>
+        <v>0.1374064567157292</v>
       </c>
       <c r="D96">
-        <v>0.02046460117757026</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.01907036780564187</v>
+      </c>
+      <c r="E96">
+        <v>0.07348774964588592</v>
+      </c>
+      <c r="F96">
+        <v>-0.1686321810089331</v>
+      </c>
+      <c r="G96">
+        <v>-0.05254764254414727</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1921543448486902</v>
+        <v>0.1964850654638898</v>
       </c>
       <c r="C97">
-        <v>-0.009844572978689511</v>
+        <v>-0.01160386367829786</v>
       </c>
       <c r="D97">
-        <v>0.1032138927912375</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.1621387848726322</v>
+      </c>
+      <c r="E97">
+        <v>0.06759908709507501</v>
+      </c>
+      <c r="F97">
+        <v>-0.2838425550978257</v>
+      </c>
+      <c r="G97">
+        <v>0.8192937040437177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1976300228927372</v>
+        <v>0.2034122442235823</v>
       </c>
       <c r="C98">
-        <v>0.02129847228513175</v>
+        <v>0.02730411162272301</v>
       </c>
       <c r="D98">
-        <v>0.125804333332653</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.09740796408931839</v>
+      </c>
+      <c r="E98">
+        <v>-0.04599640291639046</v>
+      </c>
+      <c r="F98">
+        <v>-0.09856309763743577</v>
+      </c>
+      <c r="G98">
+        <v>-0.02489532249588301</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.05473091730271203</v>
+        <v>0.05447713418365782</v>
       </c>
       <c r="C99">
-        <v>0.05715442568825901</v>
+        <v>0.05899823373789987</v>
       </c>
       <c r="D99">
-        <v>-0.01177061801180717</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.005488787407558352</v>
+      </c>
+      <c r="E99">
+        <v>0.005801012517717932</v>
+      </c>
+      <c r="F99">
+        <v>0.04111206436618264</v>
+      </c>
+      <c r="G99">
+        <v>0.001691472589202988</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>-0.1136687900240627</v>
+        <v>0.1077733390198064</v>
       </c>
       <c r="C100">
-        <v>0.379251697404505</v>
+        <v>0.3475768050617481</v>
       </c>
       <c r="D100">
-        <v>0.6335205827228165</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3862349668572557</v>
+      </c>
+      <c r="E100">
+        <v>-0.7743125353958867</v>
+      </c>
+      <c r="F100">
+        <v>-0.04540565457518014</v>
+      </c>
+      <c r="G100">
+        <v>0.035643239376223</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.02437066289041948</v>
+        <v>0.02710327886636855</v>
       </c>
       <c r="C101">
-        <v>0.04490931244462563</v>
+        <v>0.04209903431330014</v>
       </c>
       <c r="D101">
-        <v>-0.01146113195993023</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.002922202598607128</v>
+      </c>
+      <c r="E101">
+        <v>0.02444465019962914</v>
+      </c>
+      <c r="F101">
+        <v>0.07099338916670131</v>
+      </c>
+      <c r="G101">
+        <v>-0.004341881743452678</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3037,19 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
